--- a/10350_0270.xlsx
+++ b/10350_0270.xlsx
@@ -6742,256 +6742,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId265"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>690</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="266" name="Image 266" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId266"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>690</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="267" name="Image 267" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId267"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>690</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="268" name="Image 268" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId268"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>690</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="269" name="Image 269" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId269"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>690</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="270" name="Image 270" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId270"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>703</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="271" name="Image 271" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId271"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>703</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="272" name="Image 272" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId272"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>703</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="273" name="Image 273" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId273"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>703</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="274" name="Image 274" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId274"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>703</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="275" name="Image 275" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId275"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7294,7 +7044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7782,14 +7532,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>103.5343534_3.1002686_10350_0270_11</t>
+          <t>103.3787916_2.6050774_10350_0270_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.5343534</v>
+        <v>103.3787916</v>
       </c>
       <c r="C12" t="n">
-        <v>3.1002686</v>
+        <v>2.6050774</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -7798,41 +7548,41 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cuts/103.5343534,3.1002686_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.3787916,2.6050774_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>cuts/103.5343534,3.1002686_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3787916,2.6050774_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>cuts/103.5343534,3.1002686_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3787916,2.6050774_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cuts/103.5343534,3.1002686_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3787916,2.6050774_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>cuts/103.5343534,3.1002686_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3787916,2.6050774_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>103.3787916_2.6050774_10350_0270_12</t>
+          <t>103.0767276_2.8510098_10350_0270_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.3787916</v>
+        <v>103.0767276</v>
       </c>
       <c r="C13" t="n">
-        <v>2.6050774</v>
+        <v>2.8510098</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -7841,41 +7591,41 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cuts/103.3787916,2.6050774_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.0767276,2.8510098_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>cuts/103.3787916,2.6050774_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0767276,2.8510098_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>cuts/103.3787916,2.6050774_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0767276,2.8510098_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cuts/103.3787916,2.6050774_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0767276,2.8510098_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>cuts/103.3787916,2.6050774_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0767276,2.8510098_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>103.0767276_2.8510098_10350_0270_13</t>
+          <t>103.9538310_2.9069988_10350_0270_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.0767276</v>
+        <v>103.953831</v>
       </c>
       <c r="C14" t="n">
-        <v>2.8510098</v>
+        <v>2.9069988</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -7884,41 +7634,41 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cuts/103.0767276,2.8510098_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.9538310,2.9069988_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>cuts/103.0767276,2.8510098_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9538310,2.9069988_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>cuts/103.0767276,2.8510098_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9538310,2.9069988_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cuts/103.0767276,2.8510098_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9538310,2.9069988_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>cuts/103.0767276,2.8510098_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9538310,2.9069988_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>103.9538310_2.9069988_10350_0270_14</t>
+          <t>103.9964644_2.6917222_10350_0270_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.953831</v>
+        <v>103.9964644</v>
       </c>
       <c r="C15" t="n">
-        <v>2.9069988</v>
+        <v>2.6917222</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -7927,41 +7677,41 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cuts/103.9538310,2.9069988_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.9964644,2.6917222_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>cuts/103.9538310,2.9069988_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9964644,2.6917222_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>cuts/103.9538310,2.9069988_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9964644,2.6917222_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cuts/103.9538310,2.9069988_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9964644,2.6917222_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cuts/103.9538310,2.9069988_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9964644,2.6917222_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>103.9964644_2.6917222_10350_0270_15</t>
+          <t>103.9177395_2.7750117_10350_0270_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.9964644</v>
+        <v>103.9177395</v>
       </c>
       <c r="C16" t="n">
-        <v>2.6917222</v>
+        <v>2.7750117</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -7970,41 +7720,41 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>cuts/103.9964644,2.6917222_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.9177395,2.7750117_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>cuts/103.9964644,2.6917222_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9177395,2.7750117_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>cuts/103.9964644,2.6917222_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9177395,2.7750117_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cuts/103.9964644,2.6917222_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9177395,2.7750117_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>cuts/103.9964644,2.6917222_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9177395,2.7750117_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>103.9177395_2.7750117_10350_0270_16</t>
+          <t>103.9869172_2.5999860_10350_0270_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>103.9177395</v>
+        <v>103.9869172</v>
       </c>
       <c r="C17" t="n">
-        <v>2.7750117</v>
+        <v>2.599986</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -8013,41 +7763,41 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>cuts/103.9177395,2.7750117_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.9869172,2.5999860_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>cuts/103.9177395,2.7750117_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9869172,2.5999860_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>cuts/103.9177395,2.7750117_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9869172,2.5999860_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cuts/103.9177395,2.7750117_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9869172,2.5999860_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>cuts/103.9177395,2.7750117_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9869172,2.5999860_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>103.9869172_2.5999860_10350_0270_17</t>
+          <t>103.8564572_2.6253645_10350_0270_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>103.9869172</v>
+        <v>103.8564572</v>
       </c>
       <c r="C18" t="n">
-        <v>2.599986</v>
+        <v>2.6253645</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -8056,41 +7806,41 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>cuts/103.9869172,2.5999860_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.8564572,2.6253645_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>cuts/103.9869172,2.5999860_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.8564572,2.6253645_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>cuts/103.9869172,2.5999860_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.8564572,2.6253645_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cuts/103.9869172,2.5999860_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.8564572,2.6253645_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>cuts/103.9869172,2.5999860_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.8564572,2.6253645_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>103.8564572_2.6253645_10350_0270_18</t>
+          <t>103.9136621_2.5613464_10350_0270_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103.8564572</v>
+        <v>103.9136621</v>
       </c>
       <c r="C19" t="n">
-        <v>2.6253645</v>
+        <v>2.5613464</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -8099,41 +7849,41 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>cuts/103.8564572,2.6253645_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.9136621,2.5613464_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>cuts/103.8564572,2.6253645_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9136621,2.5613464_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>cuts/103.8564572,2.6253645_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9136621,2.5613464_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>cuts/103.8564572,2.6253645_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9136621,2.5613464_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>cuts/103.8564572,2.6253645_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9136621,2.5613464_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>103.9136621_2.5613464_10350_0270_19</t>
+          <t>103.9626876_2.5001621_10350_0270_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>103.9136621</v>
+        <v>103.9626876</v>
       </c>
       <c r="C20" t="n">
-        <v>2.5613464</v>
+        <v>2.5001621</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -8142,41 +7892,41 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>cuts/103.9136621,2.5613464_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.9626876,2.5001621_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>cuts/103.9136621,2.5613464_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9626876,2.5001621_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>cuts/103.9136621,2.5613464_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9626876,2.5001621_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>cuts/103.9136621,2.5613464_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9626876,2.5001621_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>cuts/103.9136621,2.5613464_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9626876,2.5001621_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>103.9626876_2.5001621_10350_0270_20</t>
+          <t>103.9507158_2.1566667_10350_0270_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>103.9626876</v>
+        <v>103.9507158</v>
       </c>
       <c r="C21" t="n">
-        <v>2.5001621</v>
+        <v>2.1566667</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -8185,41 +7935,41 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>cuts/103.9626876,2.5001621_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.9507158,2.1566667_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>cuts/103.9626876,2.5001621_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9507158,2.1566667_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>cuts/103.9626876,2.5001621_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9507158,2.1566667_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cuts/103.9626876,2.5001621_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9507158,2.1566667_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>cuts/103.9626876,2.5001621_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9507158,2.1566667_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>103.9507158_2.1566667_10350_0270_21</t>
+          <t>103.7960393_2.5383807_10350_0270_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>103.9507158</v>
+        <v>103.7960393</v>
       </c>
       <c r="C22" t="n">
-        <v>2.1566667</v>
+        <v>2.5383807</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -8228,41 +7978,41 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>cuts/103.9507158,2.1566667_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.7960393,2.5383807_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>cuts/103.9507158,2.1566667_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.7960393,2.5383807_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>cuts/103.9507158,2.1566667_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.7960393,2.5383807_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cuts/103.9507158,2.1566667_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.7960393,2.5383807_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>cuts/103.9507158,2.1566667_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.7960393,2.5383807_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>103.7960393_2.5383807_10350_0270_22</t>
+          <t>103.6980801_2.8651506_10350_0270_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>103.7960393</v>
+        <v>103.6980801</v>
       </c>
       <c r="C23" t="n">
-        <v>2.5383807</v>
+        <v>2.8651506</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -8271,41 +8021,41 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>cuts/103.7960393,2.5383807_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.6980801,2.8651506_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>cuts/103.7960393,2.5383807_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.6980801,2.8651506_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>cuts/103.7960393,2.5383807_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.6980801,2.8651506_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cuts/103.7960393,2.5383807_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.6980801,2.8651506_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>cuts/103.7960393,2.5383807_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.6980801,2.8651506_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>103.6980801_2.8651506_10350_0270_23</t>
+          <t>103.7218721_2.9328965_10350_0270_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>103.6980801</v>
+        <v>103.7218721</v>
       </c>
       <c r="C24" t="n">
-        <v>2.8651506</v>
+        <v>2.9328965</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -8314,41 +8064,41 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cuts/103.6980801,2.8651506_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.7218721,2.9328965_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>cuts/103.6980801,2.8651506_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.7218721,2.9328965_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>cuts/103.6980801,2.8651506_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.7218721,2.9328965_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cuts/103.6980801,2.8651506_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.7218721,2.9328965_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>cuts/103.6980801,2.8651506_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.7218721,2.9328965_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>103.7218721_2.9328965_10350_0270_24</t>
+          <t>103.4396789_2.7805819_10350_0270_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.7218721</v>
+        <v>103.4396789</v>
       </c>
       <c r="C25" t="n">
-        <v>2.9328965</v>
+        <v>2.7805819</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -8357,41 +8107,41 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cuts/103.7218721,2.9328965_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.4396789,2.7805819_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>cuts/103.7218721,2.9328965_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4396789,2.7805819_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>cuts/103.7218721,2.9328965_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4396789,2.7805819_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>cuts/103.7218721,2.9328965_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4396789,2.7805819_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>cuts/103.7218721,2.9328965_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4396789,2.7805819_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>103.4396789_2.7805819_10350_0270_25</t>
+          <t>103.6031103_2.6512457_10350_0270_25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>103.4396789</v>
+        <v>103.6031103</v>
       </c>
       <c r="C26" t="n">
-        <v>2.7805819</v>
+        <v>2.6512457</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -8400,41 +8150,41 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cuts/103.4396789,2.7805819_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.6031103,2.6512457_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>cuts/103.4396789,2.7805819_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.6031103,2.6512457_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>cuts/103.4396789,2.7805819_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.6031103,2.6512457_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cuts/103.4396789,2.7805819_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.6031103,2.6512457_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>cuts/103.4396789,2.7805819_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.6031103,2.6512457_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>103.6031103_2.6512457_10350_0270_26</t>
+          <t>103.3899866_2.4187451_10350_0270_26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>103.6031103</v>
+        <v>103.3899866</v>
       </c>
       <c r="C27" t="n">
-        <v>2.6512457</v>
+        <v>2.4187451</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -8443,41 +8193,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cuts/103.6031103,2.6512457_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.3899866,2.4187451_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>cuts/103.6031103,2.6512457_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3899866,2.4187451_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>cuts/103.6031103,2.6512457_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3899866,2.4187451_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cuts/103.6031103,2.6512457_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3899866,2.4187451_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>cuts/103.6031103,2.6512457_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3899866,2.4187451_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>103.3899866_2.4187451_10350_0270_27</t>
+          <t>103.2901122_2.1483986_10350_0270_27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.3899866</v>
+        <v>103.2901122</v>
       </c>
       <c r="C28" t="n">
-        <v>2.4187451</v>
+        <v>2.1483986</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -8486,41 +8236,41 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cuts/103.3899866,2.4187451_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.2901122,2.1483986_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>cuts/103.3899866,2.4187451_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.2901122,2.1483986_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>cuts/103.3899866,2.4187451_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.2901122,2.1483986_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cuts/103.3899866,2.4187451_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.2901122,2.1483986_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cuts/103.3899866,2.4187451_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.2901122,2.1483986_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>103.2901122_2.1483986_10350_0270_28</t>
+          <t>103.2739360_2.1422291_10350_0270_28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>103.2901122</v>
+        <v>103.273936</v>
       </c>
       <c r="C29" t="n">
-        <v>2.1483986</v>
+        <v>2.1422291</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -8529,41 +8279,41 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cuts/103.2901122,2.1483986_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.2739360,2.1422291_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>cuts/103.2901122,2.1483986_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.2739360,2.1422291_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>cuts/103.2901122,2.1483986_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.2739360,2.1422291_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cuts/103.2901122,2.1483986_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.2739360,2.1422291_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cuts/103.2901122,2.1483986_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.2739360,2.1422291_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>103.2739360_2.1422291_10350_0270_29</t>
+          <t>103.2697150_2.4148949_10350_0270_29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>103.273936</v>
+        <v>103.269715</v>
       </c>
       <c r="C30" t="n">
-        <v>2.1422291</v>
+        <v>2.4148949</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -8572,41 +8322,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cuts/103.2739360,2.1422291_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.2697150,2.4148949_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>cuts/103.2739360,2.1422291_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.2697150,2.4148949_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>cuts/103.2739360,2.1422291_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.2697150,2.4148949_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cuts/103.2739360,2.1422291_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.2697150,2.4148949_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cuts/103.2739360,2.1422291_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.2697150,2.4148949_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>103.2697150_2.4148949_10350_0270_30</t>
+          <t>103.3000607_2.5014003_10350_0270_30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.269715</v>
+        <v>103.3000607</v>
       </c>
       <c r="C31" t="n">
-        <v>2.4148949</v>
+        <v>2.5014003</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -8615,41 +8365,41 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cuts/103.2697150,2.4148949_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.3000607,2.5014003_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>cuts/103.2697150,2.4148949_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3000607,2.5014003_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cuts/103.2697150,2.4148949_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3000607,2.5014003_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cuts/103.2697150,2.4148949_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3000607,2.5014003_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cuts/103.2697150,2.4148949_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3000607,2.5014003_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>103.3000607_2.5014003_10350_0270_31</t>
+          <t>103.2311457_2.5755537_10350_0270_31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>103.3000607</v>
+        <v>103.2311457</v>
       </c>
       <c r="C32" t="n">
-        <v>2.5014003</v>
+        <v>2.5755537</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -8658,41 +8408,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cuts/103.3000607,2.5014003_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.2311457,2.5755537_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>cuts/103.3000607,2.5014003_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.2311457,2.5755537_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cuts/103.3000607,2.5014003_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.2311457,2.5755537_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cuts/103.3000607,2.5014003_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.2311457,2.5755537_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cuts/103.3000607,2.5014003_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.2311457,2.5755537_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>103.2311457_2.5755537_10350_0270_32</t>
+          <t>103.3177345_2.5650697_10350_0270_32</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>103.2311457</v>
+        <v>103.3177345</v>
       </c>
       <c r="C33" t="n">
-        <v>2.5755537</v>
+        <v>2.5650697</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -8701,41 +8451,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cuts/103.2311457,2.5755537_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.3177345,2.5650697_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>cuts/103.2311457,2.5755537_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3177345,2.5650697_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cuts/103.2311457,2.5755537_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3177345,2.5650697_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cuts/103.2311457,2.5755537_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3177345,2.5650697_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cuts/103.2311457,2.5755537_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3177345,2.5650697_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>103.3177345_2.5650697_10350_0270_33</t>
+          <t>103.4018062_2.7179128_10350_0270_33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>103.3177345</v>
+        <v>103.4018062</v>
       </c>
       <c r="C34" t="n">
-        <v>2.5650697</v>
+        <v>2.7179128</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -8744,41 +8494,41 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cuts/103.3177345,2.5650697_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.4018062,2.7179128_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cuts/103.3177345,2.5650697_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4018062,2.7179128_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cuts/103.3177345,2.5650697_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4018062,2.7179128_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cuts/103.3177345,2.5650697_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4018062,2.7179128_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cuts/103.3177345,2.5650697_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4018062,2.7179128_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>103.4018062_2.7179128_10350_0270_34</t>
+          <t>103.2863149_2.8777313_10350_0270_34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>103.4018062</v>
+        <v>103.2863149</v>
       </c>
       <c r="C35" t="n">
-        <v>2.7179128</v>
+        <v>2.8777313</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -8787,41 +8537,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cuts/103.4018062,2.7179128_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.2863149,2.8777313_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>cuts/103.4018062,2.7179128_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.2863149,2.8777313_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cuts/103.4018062,2.7179128_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.2863149,2.8777313_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cuts/103.4018062,2.7179128_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.2863149,2.8777313_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cuts/103.4018062,2.7179128_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.2863149,2.8777313_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>103.2863149_2.8777313_10350_0270_35</t>
+          <t>103.4480989_2.9357489_10350_0270_35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>103.2863149</v>
+        <v>103.4480989</v>
       </c>
       <c r="C36" t="n">
-        <v>2.8777313</v>
+        <v>2.9357489</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -8830,41 +8580,41 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cuts/103.2863149,2.8777313_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.4480989,2.9357489_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cuts/103.2863149,2.8777313_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4480989,2.9357489_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cuts/103.2863149,2.8777313_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4480989,2.9357489_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cuts/103.2863149,2.8777313_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4480989,2.9357489_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>cuts/103.2863149,2.8777313_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4480989,2.9357489_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>103.4480989_2.9357489_10350_0270_36</t>
+          <t>103.1514506_2.9762002_10350_0270_36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>103.4480989</v>
+        <v>103.1514506</v>
       </c>
       <c r="C37" t="n">
-        <v>2.9357489</v>
+        <v>2.9762002</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -8873,41 +8623,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cuts/103.4480989,2.9357489_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.1514506,2.9762002_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>cuts/103.4480989,2.9357489_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1514506,2.9762002_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cuts/103.4480989,2.9357489_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1514506,2.9762002_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cuts/103.4480989,2.9357489_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1514506,2.9762002_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>cuts/103.4480989,2.9357489_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1514506,2.9762002_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>103.1514506_2.9762002_10350_0270_37</t>
+          <t>103.0159777_2.8716539_10350_0270_37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>103.1514506</v>
+        <v>103.0159777</v>
       </c>
       <c r="C38" t="n">
-        <v>2.9762002</v>
+        <v>2.8716539</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -8916,41 +8666,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cuts/103.1514506,2.9762002_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.0159777,2.8716539_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cuts/103.1514506,2.9762002_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0159777,2.8716539_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cuts/103.1514506,2.9762002_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0159777,2.8716539_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cuts/103.1514506,2.9762002_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0159777,2.8716539_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cuts/103.1514506,2.9762002_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0159777,2.8716539_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>103.0159777_2.8716539_10350_0270_38</t>
+          <t>103.1264443_2.8876928_10350_0270_38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103.0159777</v>
+        <v>103.1264443</v>
       </c>
       <c r="C39" t="n">
-        <v>2.8716539</v>
+        <v>2.8876928</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -8959,41 +8709,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cuts/103.0159777,2.8716539_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.1264443,2.8876928_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cuts/103.0159777,2.8716539_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1264443,2.8876928_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cuts/103.0159777,2.8716539_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1264443,2.8876928_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cuts/103.0159777,2.8716539_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1264443,2.8876928_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cuts/103.0159777,2.8716539_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1264443,2.8876928_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>103.1264443_2.8876928_10350_0270_39</t>
+          <t>103.1362896_2.8895291_10350_0270_39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.1264443</v>
+        <v>103.1362896</v>
       </c>
       <c r="C40" t="n">
-        <v>2.8876928</v>
+        <v>2.8895291</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -9002,41 +8752,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cuts/103.1264443,2.8876928_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.1362896,2.8895291_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cuts/103.1264443,2.8876928_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1362896,2.8895291_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cuts/103.1264443,2.8876928_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1362896,2.8895291_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cuts/103.1264443,2.8876928_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1362896,2.8895291_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cuts/103.1264443,2.8876928_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1362896,2.8895291_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>103.1362896_2.8895291_10350_0270_40</t>
+          <t>103.1095402_2.5225208_10350_0270_40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>103.1362896</v>
+        <v>103.1095402</v>
       </c>
       <c r="C41" t="n">
-        <v>2.8895291</v>
+        <v>2.5225208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -9045,41 +8795,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cuts/103.1362896,2.8895291_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.1095402,2.5225208_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cuts/103.1362896,2.8895291_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1095402,2.5225208_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cuts/103.1362896,2.8895291_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1095402,2.5225208_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cuts/103.1362896,2.8895291_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1095402,2.5225208_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cuts/103.1362896,2.8895291_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1095402,2.5225208_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>103.1095402_2.5225208_10350_0270_41</t>
+          <t>103.0947959_2.2126826_10350_0270_41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>103.1095402</v>
+        <v>103.0947959</v>
       </c>
       <c r="C42" t="n">
-        <v>2.5225208</v>
+        <v>2.2126826</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -9088,41 +8838,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cuts/103.1095402,2.5225208_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.0947959,2.2126826_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuts/103.1095402,2.5225208_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0947959,2.2126826_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cuts/103.1095402,2.5225208_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0947959,2.2126826_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cuts/103.1095402,2.5225208_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0947959,2.2126826_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cuts/103.1095402,2.5225208_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0947959,2.2126826_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>103.0947959_2.2126826_10350_0270_42</t>
+          <t>103.0761155_2.2138429_10350_0270_42</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.0947959</v>
+        <v>103.0761155</v>
       </c>
       <c r="C43" t="n">
-        <v>2.2126826</v>
+        <v>2.2138429</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -9131,41 +8881,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cuts/103.0947959,2.2126826_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.0761155,2.2138429_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cuts/103.0947959,2.2126826_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0761155,2.2138429_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>cuts/103.0947959,2.2126826_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0761155,2.2138429_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cuts/103.0947959,2.2126826_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0761155,2.2138429_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cuts/103.0947959,2.2126826_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0761155,2.2138429_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>103.0761155_2.2138429_10350_0270_43</t>
+          <t>103.9184856_2.5188448_10350_0270_43</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.0761155</v>
+        <v>103.9184856</v>
       </c>
       <c r="C44" t="n">
-        <v>2.2138429</v>
+        <v>2.5188448</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -9174,41 +8924,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cuts/103.0761155,2.2138429_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.9184856,2.5188448_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cuts/103.0761155,2.2138429_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9184856,2.5188448_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cuts/103.0761155,2.2138429_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9184856,2.5188448_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cuts/103.0761155,2.2138429_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9184856,2.5188448_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cuts/103.0761155,2.2138429_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9184856,2.5188448_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>103.9184856_2.5188448_10350_0270_44</t>
+          <t>103.5658308_2.8410817_10350_0270_44</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>103.9184856</v>
+        <v>103.5658308</v>
       </c>
       <c r="C45" t="n">
-        <v>2.5188448</v>
+        <v>2.8410817</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -9217,41 +8967,41 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cuts/103.9184856,2.5188448_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.5658308,2.8410817_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cuts/103.9184856,2.5188448_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.5658308,2.8410817_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cuts/103.9184856,2.5188448_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.5658308,2.8410817_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cuts/103.9184856,2.5188448_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.5658308,2.8410817_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cuts/103.9184856,2.5188448_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.5658308,2.8410817_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>103.5658308_2.8410817_10350_0270_45</t>
+          <t>103.0069457_2.5116502_10350_0270_45</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.5658308</v>
+        <v>103.0069457</v>
       </c>
       <c r="C46" t="n">
-        <v>2.8410817</v>
+        <v>2.5116502</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -9260,41 +9010,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cuts/103.5658308,2.8410817_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.0069457,2.5116502_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cuts/103.5658308,2.8410817_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0069457,2.5116502_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cuts/103.5658308,2.8410817_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0069457,2.5116502_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cuts/103.5658308,2.8410817_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0069457,2.5116502_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>cuts/103.5658308,2.8410817_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0069457,2.5116502_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>103.0069457_2.5116502_10350_0270_46</t>
+          <t>103.3983147_2.5689124_10350_0270_46</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>103.0069457</v>
+        <v>103.3983147</v>
       </c>
       <c r="C47" t="n">
-        <v>2.5116502</v>
+        <v>2.5689124</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -9303,41 +9053,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>cuts/103.0069457,2.5116502_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.3983147,2.5689124_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cuts/103.0069457,2.5116502_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3983147,2.5689124_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cuts/103.0069457,2.5116502_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3983147,2.5689124_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cuts/103.0069457,2.5116502_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3983147,2.5689124_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>cuts/103.0069457,2.5116502_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3983147,2.5689124_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>103.3983147_2.5689124_10350_0270_47</t>
+          <t>103.7052094_2.5907328_10350_0270_47</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>103.3983147</v>
+        <v>103.7052094</v>
       </c>
       <c r="C48" t="n">
-        <v>2.5689124</v>
+        <v>2.5907328</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -9346,41 +9096,41 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>cuts/103.3983147,2.5689124_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.7052094,2.5907328_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>cuts/103.3983147,2.5689124_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.7052094,2.5907328_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>cuts/103.3983147,2.5689124_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.7052094,2.5907328_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cuts/103.3983147,2.5689124_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.7052094,2.5907328_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>cuts/103.3983147,2.5689124_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.7052094,2.5907328_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>103.4548529_3.0685825_10350_0270_48</t>
+          <t>104.0303981_2.7289212_10350_0270_48</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>103.4548529</v>
+        <v>104.0303981</v>
       </c>
       <c r="C49" t="n">
-        <v>3.0685825</v>
+        <v>2.7289212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -9389,41 +9139,41 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>cuts/103.4548529,3.0685825_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.0303981,2.7289212_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>cuts/103.4548529,3.0685825_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0303981,2.7289212_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>cuts/103.4548529,3.0685825_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0303981,2.7289212_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>cuts/103.4548529,3.0685825_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0303981,2.7289212_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>cuts/103.4548529,3.0685825_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0303981,2.7289212_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>103.7052094_2.5907328_10350_0270_49</t>
+          <t>103.1031289_2.7425187_10350_0270_49</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>103.7052094</v>
+        <v>103.1031289</v>
       </c>
       <c r="C50" t="n">
-        <v>2.5907328</v>
+        <v>2.7425187</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -9432,41 +9182,41 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>cuts/103.7052094,2.5907328_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.1031289,2.7425187_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>cuts/103.7052094,2.5907328_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1031289,2.7425187_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cuts/103.7052094,2.5907328_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1031289,2.7425187_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cuts/103.7052094,2.5907328_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1031289,2.7425187_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>cuts/103.7052094,2.5907328_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1031289,2.7425187_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>104.0303981_2.7289212_10350_0270_50</t>
+          <t>103.1213197_2.7318578_10350_0270_50</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>104.0303981</v>
+        <v>103.1213197</v>
       </c>
       <c r="C51" t="n">
-        <v>2.7289212</v>
+        <v>2.7318578</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -9475,41 +9225,41 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cuts/104.0303981,2.7289212_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.1213197,2.7318578_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>cuts/104.0303981,2.7289212_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1213197,2.7318578_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>cuts/104.0303981,2.7289212_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1213197,2.7318578_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cuts/104.0303981,2.7289212_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1213197,2.7318578_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cuts/104.0303981,2.7289212_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1213197,2.7318578_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>103.1031289_2.7425187_10350_0270_51</t>
+          <t>103.2342965_2.6625544_10350_0270_51</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>103.1031289</v>
+        <v>103.2342965</v>
       </c>
       <c r="C52" t="n">
-        <v>2.7425187</v>
+        <v>2.6625544</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -9518,41 +9268,41 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>cuts/103.1031289,2.7425187_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.2342965,2.6625544_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>cuts/103.1031289,2.7425187_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.2342965,2.6625544_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cuts/103.1031289,2.7425187_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.2342965,2.6625544_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cuts/103.1031289,2.7425187_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.2342965,2.6625544_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cuts/103.1031289,2.7425187_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.2342965,2.6625544_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>103.1213197_2.7318578_10350_0270_52</t>
+          <t>103.2294888_2.5240533_10350_0270_52</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>103.1213197</v>
+        <v>103.2294888</v>
       </c>
       <c r="C53" t="n">
-        <v>2.7318578</v>
+        <v>2.5240533</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -9561,41 +9311,41 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>cuts/103.1213197,2.7318578_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.2294888,2.5240533_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>cuts/103.1213197,2.7318578_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.2294888,2.5240533_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>cuts/103.1213197,2.7318578_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.2294888,2.5240533_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>cuts/103.1213197,2.7318578_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.2294888,2.5240533_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>cuts/103.1213197,2.7318578_10350_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.2294888,2.5240533_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>103.2342965_2.6625544_10350_0270_53</t>
+          <t>103.3729832_2.3090768_10350_0270_53</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>103.2342965</v>
+        <v>103.3729832</v>
       </c>
       <c r="C54" t="n">
-        <v>2.6625544</v>
+        <v>2.3090768</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -9604,111 +9354,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>cuts/103.2342965,2.6625544_10350_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.3729832,2.3090768_10350_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>cuts/103.2342965,2.6625544_10350_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3729832,2.3090768_10350_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>cuts/103.2342965,2.6625544_10350_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3729832,2.3090768_10350_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>cuts/103.2342965,2.6625544_10350_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3729832,2.3090768_10350_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
-        <is>
-          <t>cuts/103.2342965,2.6625544_10350_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>103.2294888_2.5240533_10350_0270_54</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>103.2294888</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2.5240533</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>cuts/103.2294888,2.5240533_10350_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>cuts/103.2294888,2.5240533_10350_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>cuts/103.2294888,2.5240533_10350_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>cuts/103.2294888,2.5240533_10350_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>cuts/103.2294888,2.5240533_10350_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>103.3729832_2.3090768_10350_0270_55</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>103.3729832</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2.3090768</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>cuts/103.3729832,2.3090768_10350_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>cuts/103.3729832,2.3090768_10350_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>cuts/103.3729832,2.3090768_10350_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>cuts/103.3729832,2.3090768_10350_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
         <is>
           <t>cuts/103.3729832,2.3090768_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
@@ -9725,7 +9389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R704"/>
+  <dimension ref="A1:R678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9850,315 +9514,301 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>103.5343534_3.1002686_10350_0270_11</t>
+          <t>103.3787916_2.6050774_10350_0270_11</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>103.3787916_2.6050774_10350_0270_12</t>
+          <t>103.0767276_2.8510098_10350_0270_12</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>103.0767276_2.8510098_10350_0270_13</t>
+          <t>103.9538310_2.9069988_10350_0270_13</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>103.9538310_2.9069988_10350_0270_14</t>
+          <t>103.9964644_2.6917222_10350_0270_14</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>103.9964644_2.6917222_10350_0270_15</t>
+          <t>103.9177395_2.7750117_10350_0270_15</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>103.9177395_2.7750117_10350_0270_16</t>
+          <t>103.9869172_2.5999860_10350_0270_16</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>103.9869172_2.5999860_10350_0270_17</t>
+          <t>103.8564572_2.6253645_10350_0270_17</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>103.8564572_2.6253645_10350_0270_18</t>
+          <t>103.9136621_2.5613464_10350_0270_18</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>103.9136621_2.5613464_10350_0270_19</t>
+          <t>103.9626876_2.5001621_10350_0270_19</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>103.9626876_2.5001621_10350_0270_20</t>
+          <t>103.9507158_2.1566667_10350_0270_20</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>103.9507158_2.1566667_10350_0270_21</t>
+          <t>103.7960393_2.5383807_10350_0270_21</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>103.7960393_2.5383807_10350_0270_22</t>
+          <t>103.6980801_2.8651506_10350_0270_22</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>103.6980801_2.8651506_10350_0270_23</t>
+          <t>103.7218721_2.9328965_10350_0270_23</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>103.7218721_2.9328965_10350_0270_24</t>
+          <t>103.4396789_2.7805819_10350_0270_24</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>103.4396789_2.7805819_10350_0270_25</t>
+          <t>103.6031103_2.6512457_10350_0270_25</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>103.6031103_2.6512457_10350_0270_26</t>
+          <t>103.3899866_2.4187451_10350_0270_26</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>103.3899866_2.4187451_10350_0270_27</t>
+          <t>103.2901122_2.1483986_10350_0270_27</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>103.2901122_2.1483986_10350_0270_28</t>
+          <t>103.2739360_2.1422291_10350_0270_28</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>103.2739360_2.1422291_10350_0270_29</t>
+          <t>103.2697150_2.4148949_10350_0270_29</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>103.2697150_2.4148949_10350_0270_30</t>
+          <t>103.3000607_2.5014003_10350_0270_30</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>103.3000607_2.5014003_10350_0270_31</t>
+          <t>103.2311457_2.5755537_10350_0270_31</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>103.2311457_2.5755537_10350_0270_32</t>
+          <t>103.3177345_2.5650697_10350_0270_32</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>103.3177345_2.5650697_10350_0270_33</t>
+          <t>103.4018062_2.7179128_10350_0270_33</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>103.4018062_2.7179128_10350_0270_34</t>
+          <t>103.2863149_2.8777313_10350_0270_34</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>103.2863149_2.8777313_10350_0270_35</t>
+          <t>103.4480989_2.9357489_10350_0270_35</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>103.4480989_2.9357489_10350_0270_36</t>
+          <t>103.1514506_2.9762002_10350_0270_36</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>103.1514506_2.9762002_10350_0270_37</t>
+          <t>103.0159777_2.8716539_10350_0270_37</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>103.0159777_2.8716539_10350_0270_38</t>
+          <t>103.1264443_2.8876928_10350_0270_38</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>103.1264443_2.8876928_10350_0270_39</t>
+          <t>103.1362896_2.8895291_10350_0270_39</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>103.1362896_2.8895291_10350_0270_40</t>
+          <t>103.1095402_2.5225208_10350_0270_40</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>103.1095402_2.5225208_10350_0270_41</t>
+          <t>103.0947959_2.2126826_10350_0270_41</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>103.0947959_2.2126826_10350_0270_42</t>
+          <t>103.0761155_2.2138429_10350_0270_42</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>103.0761155_2.2138429_10350_0270_43</t>
+          <t>103.9184856_2.5188448_10350_0270_43</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>103.9184856_2.5188448_10350_0270_44</t>
+          <t>103.5658308_2.8410817_10350_0270_44</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>103.5658308_2.8410817_10350_0270_45</t>
+          <t>103.0069457_2.5116502_10350_0270_45</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>103.0069457_2.5116502_10350_0270_46</t>
+          <t>103.3983147_2.5689124_10350_0270_46</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>103.3983147_2.5689124_10350_0270_47</t>
+          <t>103.7052094_2.5907328_10350_0270_47</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>103.4548529_3.0685825_10350_0270_48</t>
+          <t>104.0303981_2.7289212_10350_0270_48</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>103.7052094_2.5907328_10350_0270_49</t>
+          <t>103.1031289_2.7425187_10350_0270_49</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>104.0303981_2.7289212_10350_0270_50</t>
+          <t>103.1213197_2.7318578_10350_0270_50</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>103.1031289_2.7425187_10350_0270_51</t>
+          <t>103.2342965_2.6625544_10350_0270_51</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>103.1213197_2.7318578_10350_0270_52</t>
+          <t>103.2294888_2.5240533_10350_0270_52</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>103.2342965_2.6625544_10350_0270_53</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>103.2294888_2.5240533_10350_0270_54</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>103.3729832_2.3090768_10350_0270_55</t>
+          <t>103.3729832_2.3090768_10350_0270_53</t>
         </is>
       </c>
     </row>

--- a/10350_0270.xlsx
+++ b/10350_0270.xlsx
@@ -7044,7 +7044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7098,6 +7098,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7141,6 +7221,54 @@
           <t>cuts/103.9178183,2.5188450_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7184,6 +7312,54 @@
           <t>cuts/103.9082376,2.5638539_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7227,6 +7403,54 @@
           <t>cuts/103.7385931,2.5746838_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7270,6 +7494,54 @@
           <t>cuts/103.5859099,2.5762449_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7313,6 +7585,54 @@
           <t>cuts/103.4285998,2.5747052_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7356,6 +7676,54 @@
           <t>cuts/103.2620341,2.5854689_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7399,6 +7767,54 @@
           <t>cuts/103.1108863,2.6023777_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7442,6 +7858,54 @@
           <t>cuts/103.6343685,2.4225760_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7485,6 +7949,54 @@
           <t>cuts/103.4809053,2.0820833_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7528,6 +8040,54 @@
           <t>cuts/103.4600297,2.9820828_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7571,6 +8131,54 @@
           <t>cuts/103.3787916,2.6050774_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7614,6 +8222,54 @@
           <t>cuts/103.0767276,2.8510098_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7657,6 +8313,54 @@
           <t>cuts/103.9538310,2.9069988_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7700,6 +8404,54 @@
           <t>cuts/103.9964644,2.6917222_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7743,6 +8495,54 @@
           <t>cuts/103.9177395,2.7750117_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M16" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7786,6 +8586,54 @@
           <t>cuts/103.9869172,2.5999860_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M17" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7829,6 +8677,54 @@
           <t>cuts/103.8564572,2.6253645_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7872,6 +8768,54 @@
           <t>cuts/103.9136621,2.5613464_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7915,6 +8859,54 @@
           <t>cuts/103.9626876,2.5001621_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7958,6 +8950,54 @@
           <t>cuts/103.9507158,2.1566667_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8001,6 +9041,54 @@
           <t>cuts/103.7960393,2.5383807_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K22" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T22" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8044,6 +9132,54 @@
           <t>cuts/103.6980801,2.8651506_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K23" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T23" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8087,6 +9223,54 @@
           <t>cuts/103.7218721,2.9328965_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T24" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8130,6 +9314,54 @@
           <t>cuts/103.4396789,2.7805819_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M25" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T25" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8173,6 +9405,54 @@
           <t>cuts/103.6031103,2.6512457_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M26" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T26" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8216,6 +9496,54 @@
           <t>cuts/103.3899866,2.4187451_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K27" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M27" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T27" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8259,6 +9587,54 @@
           <t>cuts/103.2901122,2.1483986_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M28" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8302,6 +9678,54 @@
           <t>cuts/103.2739360,2.1422291_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K29" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M29" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8345,6 +9769,54 @@
           <t>cuts/103.2697150,2.4148949_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K30" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M30" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8388,6 +9860,54 @@
           <t>cuts/103.3000607,2.5014003_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M31" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T31" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8431,6 +9951,54 @@
           <t>cuts/103.2311457,2.5755537_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M32" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8474,6 +10042,54 @@
           <t>cuts/103.3177345,2.5650697_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K33" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M33" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T33" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8517,6 +10133,54 @@
           <t>cuts/103.4018062,2.7179128_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K34" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M34" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T34" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8560,6 +10224,54 @@
           <t>cuts/103.2863149,2.8777313_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M35" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T35" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8603,6 +10315,54 @@
           <t>cuts/103.4480989,2.9357489_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K36" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M36" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T36" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8646,6 +10406,54 @@
           <t>cuts/103.1514506,2.9762002_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K37" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M37" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T37" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8689,6 +10497,54 @@
           <t>cuts/103.0159777,2.8716539_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K38" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M38" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T38" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8732,6 +10588,54 @@
           <t>cuts/103.1264443,2.8876928_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K39" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M39" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T39" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8775,6 +10679,54 @@
           <t>cuts/103.1362896,2.8895291_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K40" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M40" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T40" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8818,6 +10770,54 @@
           <t>cuts/103.1095402,2.5225208_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K41" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M41" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T41" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8861,6 +10861,54 @@
           <t>cuts/103.0947959,2.2126826_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K42" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M42" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O42" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T42" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8904,6 +10952,54 @@
           <t>cuts/103.0761155,2.2138429_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K43" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M43" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O43" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T43" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8947,6 +11043,54 @@
           <t>cuts/103.9184856,2.5188448_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K44" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M44" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O44" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T44" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8990,6 +11134,54 @@
           <t>cuts/103.5658308,2.8410817_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K45" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M45" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T45" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X45" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9033,6 +11225,54 @@
           <t>cuts/103.0069457,2.5116502_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K46" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M46" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T46" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9076,6 +11316,54 @@
           <t>cuts/103.3983147,2.5689124_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J47" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K47" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M47" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T47" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X47" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9119,6 +11407,54 @@
           <t>cuts/103.7052094,2.5907328_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J48" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K48" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M48" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O48" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T48" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9162,6 +11498,54 @@
           <t>cuts/104.0303981,2.7289212_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J49" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K49" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M49" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O49" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T49" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X49" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9205,6 +11589,54 @@
           <t>cuts/103.1031289,2.7425187_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J50" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K50" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M50" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T50" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X50" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9248,6 +11680,54 @@
           <t>cuts/103.1213197,2.7318578_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J51" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K51" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M51" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O51" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T51" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9291,6 +11771,54 @@
           <t>cuts/103.2342965,2.6625544_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J52" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K52" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M52" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O52" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T52" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X52" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9334,6 +11862,54 @@
           <t>cuts/103.2294888,2.5240533_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J53" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K53" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M53" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O53" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T53" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X53" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9376,6 +11952,54 @@
         <is>
           <t>cuts/103.3729832,2.3090768_10350_0270_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J54" t="n">
+        <v>3.79956</v>
+      </c>
+      <c r="K54" t="n">
+        <v>12.3367</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.8407</v>
+      </c>
+      <c r="M54" t="n">
+        <v>7.45742</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4.59461</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>30.1855</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5.25939</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.423828</v>
+      </c>
+      <c r="T54" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X54" t="n">
+        <v>4.65116</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.328125</v>
       </c>
     </row>
   </sheetData>
